--- a/data/league_data/france/20/france_misc.xlsx
+++ b/data/league_data/france/20/france_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCB21085-457A-464E-9727-EE61DFC4F8EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C860E2-0508-DC4B-9F87-A62B8F21F7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -790,9 +790,6 @@
     <t>Mounir Chouiar</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Mohamed Simakan</t>
   </si>
   <si>
@@ -1835,12 +1832,15 @@
   </si>
   <si>
     <t>Edmilson Indjai</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2698,14 +2698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2732,7 +2732,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="X147" s="2"/>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14984,12 +14984,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>256</v>
+        <v>604</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>47</v>
@@ -15058,12 +15058,12 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>29</v>
@@ -15132,12 +15132,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>29</v>
@@ -15206,12 +15206,12 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>29</v>
@@ -15280,12 +15280,12 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>29</v>
@@ -15354,15 +15354,15 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>26</v>
@@ -15428,12 +15428,12 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>78</v>
@@ -15502,12 +15502,12 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>181</v>
@@ -15576,12 +15576,12 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>88</v>
@@ -15650,12 +15650,12 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>47</v>
@@ -15724,15 +15724,15 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>26</v>
@@ -15798,12 +15798,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>29</v>
@@ -15872,12 +15872,12 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>29</v>
@@ -15946,12 +15946,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>29</v>
@@ -16020,12 +16020,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>29</v>
@@ -16094,12 +16094,12 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>25</v>
@@ -16168,15 +16168,15 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>26</v>
@@ -16242,12 +16242,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>173</v>
@@ -16316,12 +16316,12 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>29</v>
@@ -16390,15 +16390,15 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>50</v>
@@ -16464,12 +16464,12 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>29</v>
@@ -16538,12 +16538,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>181</v>
@@ -16612,15 +16612,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>90</v>
@@ -16686,12 +16686,12 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>29</v>
@@ -16760,12 +16760,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>229</v>
@@ -16834,12 +16834,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>29</v>
@@ -16908,15 +16908,15 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>26</v>
@@ -16982,12 +16982,12 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>29</v>
@@ -17056,12 +17056,12 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>78</v>
@@ -17130,12 +17130,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>29</v>
@@ -17204,12 +17204,12 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>29</v>
@@ -17278,12 +17278,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>84</v>
@@ -17352,12 +17352,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>29</v>
@@ -17426,12 +17426,12 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>29</v>
@@ -17500,15 +17500,15 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>26</v>
@@ -17574,12 +17574,12 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>88</v>
@@ -17648,12 +17648,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>29</v>
@@ -17722,12 +17722,12 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>88</v>
@@ -17796,12 +17796,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>47</v>
@@ -17870,12 +17870,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>29</v>
@@ -17944,12 +17944,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>70</v>
@@ -18018,12 +18018,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>29</v>
@@ -18092,12 +18092,12 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>29</v>
@@ -18166,12 +18166,12 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>29</v>
@@ -18240,12 +18240,12 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>29</v>
@@ -18314,12 +18314,12 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>74</v>
@@ -18388,12 +18388,12 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>29</v>
@@ -18462,12 +18462,12 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>29</v>
@@ -18536,12 +18536,12 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>29</v>
@@ -18610,12 +18610,12 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>29</v>
@@ -18684,15 +18684,15 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>90</v>
@@ -18758,12 +18758,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>29</v>
@@ -18832,12 +18832,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>160</v>
@@ -18906,12 +18906,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>56</v>
@@ -18980,12 +18980,12 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>29</v>
@@ -19054,12 +19054,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>29</v>
@@ -19128,12 +19128,12 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>29</v>
@@ -19202,12 +19202,12 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>78</v>
@@ -19276,12 +19276,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>29</v>
@@ -19350,12 +19350,12 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>29</v>
@@ -19424,15 +19424,15 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>90</v>
@@ -19498,12 +19498,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>29</v>
@@ -19572,12 +19572,12 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>100</v>
@@ -19646,12 +19646,12 @@
         <v>60.7</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>29</v>
@@ -19720,12 +19720,12 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>64</v>
@@ -19794,12 +19794,12 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>29</v>
@@ -19868,12 +19868,12 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>29</v>
@@ -19942,12 +19942,12 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>229</v>
@@ -20016,12 +20016,12 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>100</v>
@@ -20090,12 +20090,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>29</v>
@@ -20164,15 +20164,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>90</v>
@@ -20238,12 +20238,12 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>29</v>
@@ -20312,12 +20312,12 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>29</v>
@@ -20386,12 +20386,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>47</v>
@@ -20460,12 +20460,12 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>70</v>
@@ -20534,15 +20534,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>26</v>
@@ -20608,12 +20608,12 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>29</v>
@@ -20682,15 +20682,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>26</v>
@@ -20756,12 +20756,12 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>29</v>
@@ -20830,15 +20830,15 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>90</v>
@@ -20904,12 +20904,12 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>29</v>
@@ -20978,12 +20978,12 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>160</v>
@@ -21052,12 +21052,12 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>29</v>
@@ -21126,12 +21126,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>29</v>
@@ -21200,15 +21200,15 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>26</v>
@@ -21274,12 +21274,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>78</v>
@@ -21348,12 +21348,12 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>47</v>
@@ -21422,15 +21422,15 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>85</v>
@@ -21496,12 +21496,12 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>88</v>
@@ -21570,12 +21570,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>29</v>
@@ -21644,15 +21644,15 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>90</v>
@@ -21718,12 +21718,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>29</v>
@@ -21792,12 +21792,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>64</v>
@@ -21866,12 +21866,12 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>70</v>
@@ -21940,12 +21940,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>173</v>
@@ -22014,12 +22014,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>29</v>
@@ -22088,12 +22088,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>160</v>
@@ -22162,12 +22162,12 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>29</v>
@@ -22236,15 +22236,15 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>50</v>
@@ -22310,12 +22310,12 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>29</v>
@@ -22384,12 +22384,12 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>29</v>
@@ -22458,12 +22458,12 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>29</v>
@@ -22532,12 +22532,12 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>25</v>
@@ -22606,12 +22606,12 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>100</v>
@@ -22680,12 +22680,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>29</v>
@@ -22754,12 +22754,12 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>229</v>
@@ -22828,12 +22828,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>29</v>
@@ -22902,12 +22902,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>29</v>
@@ -22976,12 +22976,12 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>160</v>
@@ -23050,12 +23050,12 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>29</v>
@@ -23124,12 +23124,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>100</v>
@@ -23198,12 +23198,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>29</v>
@@ -23272,15 +23272,15 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>32</v>
@@ -23344,12 +23344,12 @@
       </c>
       <c r="X279" s="2"/>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>29</v>
@@ -23418,12 +23418,12 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>222</v>
@@ -23492,12 +23492,12 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>160</v>
@@ -23566,15 +23566,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>115</v>
@@ -23640,12 +23640,12 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>60</v>
@@ -23714,12 +23714,12 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>29</v>
@@ -23788,12 +23788,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>29</v>
@@ -23862,12 +23862,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>29</v>
@@ -23936,12 +23936,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>100</v>
@@ -24010,12 +24010,12 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>29</v>
@@ -24084,12 +24084,12 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>29</v>
@@ -24158,12 +24158,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>29</v>
@@ -24232,15 +24232,15 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>26</v>
@@ -24306,12 +24306,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>29</v>
@@ -24380,12 +24380,12 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>29</v>
@@ -24454,12 +24454,12 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>124</v>
@@ -24528,12 +24528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>47</v>
@@ -24602,12 +24602,12 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>29</v>
@@ -24676,15 +24676,15 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>50</v>
@@ -24750,12 +24750,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>47</v>
@@ -24824,15 +24824,15 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>26</v>
@@ -24898,12 +24898,12 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>47</v>
@@ -24972,12 +24972,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>70</v>
@@ -25046,12 +25046,12 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>29</v>
@@ -25120,12 +25120,12 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>64</v>
@@ -25194,15 +25194,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>26</v>
@@ -25268,12 +25268,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>74</v>
@@ -25342,15 +25342,15 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>26</v>
@@ -25416,12 +25416,12 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>60</v>
@@ -25490,15 +25490,15 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>90</v>
@@ -25564,12 +25564,12 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>29</v>
@@ -25638,12 +25638,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>56</v>
@@ -25712,12 +25712,12 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>29</v>
@@ -25786,12 +25786,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>29</v>
@@ -25860,12 +25860,12 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>29</v>
@@ -25934,12 +25934,12 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>84</v>
@@ -26008,12 +26008,12 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>78</v>
@@ -26082,12 +26082,12 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>47</v>
@@ -26156,12 +26156,12 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>29</v>
@@ -26230,15 +26230,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>50</v>
@@ -26304,15 +26304,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>135</v>
@@ -26378,12 +26378,12 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>64</v>
@@ -26452,12 +26452,12 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>29</v>
@@ -26526,12 +26526,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>64</v>
@@ -26600,12 +26600,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>29</v>
@@ -26674,12 +26674,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>29</v>
@@ -26748,12 +26748,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>78</v>
@@ -26822,12 +26822,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>167</v>
@@ -26896,12 +26896,12 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>29</v>
@@ -26970,12 +26970,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>100</v>
@@ -27044,12 +27044,12 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>44</v>
@@ -27118,12 +27118,12 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>88</v>
@@ -27192,12 +27192,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>119</v>
@@ -27266,12 +27266,12 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>29</v>
@@ -27340,12 +27340,12 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>246</v>
@@ -27414,12 +27414,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>29</v>
@@ -27488,12 +27488,12 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>100</v>
@@ -27562,15 +27562,15 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>85</v>
@@ -27636,12 +27636,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>200</v>
@@ -27710,12 +27710,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>222</v>
@@ -27784,12 +27784,12 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>29</v>
@@ -27858,12 +27858,12 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>29</v>
@@ -27932,12 +27932,12 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>29</v>
@@ -28006,12 +28006,12 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>29</v>
@@ -28080,12 +28080,12 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>60</v>
@@ -28154,12 +28154,12 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>29</v>
@@ -28228,12 +28228,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>88</v>
@@ -28302,12 +28302,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>29</v>
@@ -28376,12 +28376,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>29</v>
@@ -28450,12 +28450,12 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>29</v>
@@ -28524,12 +28524,12 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>229</v>
@@ -28598,12 +28598,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28672,12 +28672,12 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>151</v>
@@ -28746,12 +28746,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>151</v>
@@ -28820,12 +28820,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>160</v>
@@ -28894,12 +28894,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>155</v>
@@ -28968,12 +28968,12 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>170</v>
@@ -29042,12 +29042,12 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>64</v>
@@ -29116,15 +29116,15 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>90</v>
@@ -29190,12 +29190,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>151</v>
@@ -29264,12 +29264,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>29</v>
@@ -29338,12 +29338,12 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>29</v>
@@ -29412,12 +29412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>160</v>
@@ -29486,12 +29486,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>70</v>
@@ -29560,15 +29560,15 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>90</v>
@@ -29634,15 +29634,15 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>26</v>
@@ -29708,12 +29708,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>29</v>
@@ -29782,12 +29782,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>229</v>
@@ -29856,12 +29856,12 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>47</v>
@@ -29930,12 +29930,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>29</v>
@@ -30004,12 +30004,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>64</v>
@@ -30078,12 +30078,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>88</v>
@@ -30152,12 +30152,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>29</v>
@@ -30226,12 +30226,12 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>160</v>
@@ -30300,12 +30300,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>29</v>
@@ -30372,12 +30372,12 @@
       </c>
       <c r="X374" s="2"/>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>29</v>
@@ -30446,15 +30446,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>85</v>
@@ -30520,12 +30520,12 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>29</v>
@@ -30594,15 +30594,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>90</v>
@@ -30668,12 +30668,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>29</v>
@@ -30742,12 +30742,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>29</v>
@@ -30816,12 +30816,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>29</v>
@@ -30890,12 +30890,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>29</v>
@@ -30964,12 +30964,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>29</v>
@@ -31038,12 +31038,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>119</v>
@@ -31112,12 +31112,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>100</v>
@@ -31186,12 +31186,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>29</v>
@@ -31260,12 +31260,12 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>29</v>
@@ -31332,15 +31332,15 @@
       </c>
       <c r="X387" s="2"/>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>135</v>
@@ -31406,12 +31406,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>29</v>
@@ -31480,15 +31480,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>115</v>
@@ -31554,12 +31554,12 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>29</v>
@@ -31626,12 +31626,12 @@
       </c>
       <c r="X391" s="2"/>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>29</v>
@@ -31700,12 +31700,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>173</v>
@@ -31772,12 +31772,12 @@
       </c>
       <c r="X393" s="2"/>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>70</v>
@@ -31846,12 +31846,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>56</v>
@@ -31920,12 +31920,12 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>29</v>
@@ -31992,12 +31992,12 @@
       </c>
       <c r="X396" s="2"/>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>29</v>
@@ -32066,15 +32066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>26</v>
@@ -32140,12 +32140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>29</v>
@@ -32214,12 +32214,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>47</v>
@@ -32288,12 +32288,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>47</v>
@@ -32362,12 +32362,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>29</v>
@@ -32436,7 +32436,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32510,12 +32510,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>29</v>
@@ -32584,12 +32584,12 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>231</v>
@@ -32658,12 +32658,12 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>29</v>
@@ -32732,15 +32732,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>85</v>
@@ -32806,12 +32806,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>29</v>
@@ -32880,12 +32880,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>47</v>
@@ -32954,12 +32954,12 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>29</v>
@@ -33028,12 +33028,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>29</v>
@@ -33100,12 +33100,12 @@
       </c>
       <c r="X411" s="2"/>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>47</v>
@@ -33174,12 +33174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>47</v>
@@ -33248,12 +33248,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>29</v>
@@ -33322,12 +33322,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>100</v>
@@ -33396,12 +33396,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>47</v>
@@ -33470,12 +33470,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>29</v>
@@ -33544,12 +33544,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>229</v>
@@ -33618,15 +33618,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>26</v>
@@ -33692,12 +33692,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>29</v>
@@ -33766,12 +33766,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>29</v>
@@ -33838,15 +33838,15 @@
       </c>
       <c r="X421" s="2"/>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>32</v>
@@ -33910,15 +33910,15 @@
       </c>
       <c r="X422" s="2"/>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>32</v>
@@ -33982,12 +33982,12 @@
       </c>
       <c r="X423" s="2"/>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>229</v>
@@ -34054,15 +34054,15 @@
       </c>
       <c r="X424" s="2"/>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>32</v>
@@ -34126,12 +34126,12 @@
       </c>
       <c r="X425" s="2"/>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>29</v>
@@ -34200,12 +34200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>70</v>
@@ -34274,12 +34274,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>29</v>
@@ -34348,12 +34348,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>29</v>
@@ -34422,12 +34422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>100</v>
@@ -34496,12 +34496,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>176</v>
@@ -34570,12 +34570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>44</v>
@@ -34644,12 +34644,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>84</v>
@@ -34718,12 +34718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>29</v>
@@ -34792,12 +34792,12 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>56</v>
@@ -34866,12 +34866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>29</v>
@@ -34938,12 +34938,12 @@
       </c>
       <c r="X436" s="2"/>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>29</v>
@@ -35012,12 +35012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>29</v>
@@ -35086,15 +35086,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>50</v>
@@ -35160,12 +35160,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>100</v>
@@ -35234,12 +35234,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>29</v>
@@ -35308,12 +35308,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>29</v>
@@ -35382,12 +35382,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>29</v>
@@ -35456,12 +35456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>29</v>
@@ -35530,12 +35530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>29</v>
@@ -35602,15 +35602,15 @@
       </c>
       <c r="X445" s="2"/>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>141</v>
@@ -35676,12 +35676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>47</v>
@@ -35750,15 +35750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>32</v>
@@ -35822,15 +35822,15 @@
       </c>
       <c r="X448" s="2"/>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>85</v>
@@ -35896,12 +35896,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>29</v>
@@ -35970,12 +35970,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>100</v>
@@ -36044,12 +36044,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>231</v>
@@ -36118,12 +36118,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>29</v>
@@ -36192,12 +36192,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>29</v>
@@ -36266,12 +36266,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>29</v>
@@ -36340,12 +36340,12 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>88</v>
@@ -36414,15 +36414,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>135</v>
@@ -36488,15 +36488,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>26</v>
@@ -36562,12 +36562,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>60</v>
@@ -36636,12 +36636,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>29</v>
@@ -36710,12 +36710,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>29</v>
@@ -36784,12 +36784,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>29</v>
@@ -36858,12 +36858,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>29</v>
@@ -36930,15 +36930,15 @@
       </c>
       <c r="X463" s="2"/>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>26</v>
@@ -37004,12 +37004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>29</v>
@@ -37078,12 +37078,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>126</v>
@@ -37150,12 +37150,12 @@
       </c>
       <c r="X466" s="2"/>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>29</v>
@@ -37224,12 +37224,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>88</v>
@@ -37298,12 +37298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>29</v>
@@ -37370,15 +37370,15 @@
       </c>
       <c r="X469" s="2"/>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>26</v>
@@ -37444,12 +37444,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>60</v>
@@ -37516,12 +37516,12 @@
       </c>
       <c r="X471" s="2"/>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>29</v>
@@ -37590,12 +37590,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>29</v>
@@ -37664,12 +37664,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>29</v>
@@ -37738,12 +37738,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>78</v>
@@ -37812,12 +37812,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>56</v>
@@ -37884,12 +37884,12 @@
       </c>
       <c r="X476" s="2"/>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>160</v>
@@ -37958,15 +37958,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>135</v>
@@ -38032,12 +38032,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>29</v>
@@ -38106,15 +38106,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>50</v>
@@ -38180,12 +38180,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>78</v>
@@ -38252,12 +38252,12 @@
       </c>
       <c r="X481" s="2"/>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>29</v>
@@ -38326,12 +38326,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>29</v>
@@ -38400,12 +38400,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>29</v>
@@ -38474,12 +38474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>29</v>
@@ -38546,12 +38546,12 @@
       </c>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>181</v>
@@ -38620,12 +38620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>100</v>
@@ -38694,15 +38694,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>85</v>
@@ -38768,12 +38768,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>29</v>
@@ -38842,15 +38842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>26</v>
@@ -38916,12 +38916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>29</v>
@@ -38990,12 +38990,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>88</v>
@@ -39064,12 +39064,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>74</v>
@@ -39138,12 +39138,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>29</v>
@@ -39212,12 +39212,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>160</v>
@@ -39274,12 +39274,12 @@
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>29</v>
@@ -39348,12 +39348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>29</v>
@@ -39422,12 +39422,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>29</v>
@@ -39496,12 +39496,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>29</v>
@@ -39570,12 +39570,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>222</v>
@@ -39644,7 +39644,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/20/france_misc.xlsx
+++ b/data/league_data/france/20/france_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C860E2-0508-DC4B-9F87-A62B8F21F7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A0D55-7C15-F545-95A2-ACC755AA4CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1291,9 +1291,6 @@
     <t>Xeka</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Anthony Caci</t>
   </si>
   <si>
@@ -1835,6 +1832,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2701,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14989,7 +14989,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>47</v>
@@ -26087,7 +26087,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>423</v>
+        <v>604</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>47</v>
@@ -26161,7 +26161,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>29</v>
@@ -26235,7 +26235,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>384</v>
@@ -26309,10 +26309,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>135</v>
@@ -26383,7 +26383,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>64</v>
@@ -26457,7 +26457,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>29</v>
@@ -26531,7 +26531,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>64</v>
@@ -26605,7 +26605,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>29</v>
@@ -26679,7 +26679,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>29</v>
@@ -26753,7 +26753,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>78</v>
@@ -26827,7 +26827,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>167</v>
@@ -26901,7 +26901,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>29</v>
@@ -26975,7 +26975,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>100</v>
@@ -27049,7 +27049,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>44</v>
@@ -27123,7 +27123,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>88</v>
@@ -27197,7 +27197,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>119</v>
@@ -27271,7 +27271,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>29</v>
@@ -27345,7 +27345,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>246</v>
@@ -27493,7 +27493,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>100</v>
@@ -27567,7 +27567,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>394</v>
@@ -27641,7 +27641,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>200</v>
@@ -27715,7 +27715,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>222</v>
@@ -27789,7 +27789,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>29</v>
@@ -27863,7 +27863,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>29</v>
@@ -27937,7 +27937,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>29</v>
@@ -28011,7 +28011,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>29</v>
@@ -28085,7 +28085,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>60</v>
@@ -28159,7 +28159,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>29</v>
@@ -28233,7 +28233,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>88</v>
@@ -28307,7 +28307,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>29</v>
@@ -28455,7 +28455,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>29</v>
@@ -28529,7 +28529,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>229</v>
@@ -28603,7 +28603,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>25</v>
@@ -28677,7 +28677,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>151</v>
@@ -28751,7 +28751,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>151</v>
@@ -28825,7 +28825,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>160</v>
@@ -28899,7 +28899,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>155</v>
@@ -28973,7 +28973,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>170</v>
@@ -29047,7 +29047,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>64</v>
@@ -29121,7 +29121,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>412</v>
@@ -29195,7 +29195,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>151</v>
@@ -29269,7 +29269,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>29</v>
@@ -29343,7 +29343,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>29</v>
@@ -29417,7 +29417,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>160</v>
@@ -29491,7 +29491,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>70</v>
@@ -29565,10 +29565,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>90</v>
@@ -29639,7 +29639,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>384</v>
@@ -29713,7 +29713,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>29</v>
@@ -29787,7 +29787,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>229</v>
@@ -29861,7 +29861,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>47</v>
@@ -29935,7 +29935,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>29</v>
@@ -30009,7 +30009,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>64</v>
@@ -30083,7 +30083,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>88</v>
@@ -30157,7 +30157,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>29</v>
@@ -30231,7 +30231,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>160</v>
@@ -30305,7 +30305,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>29</v>
@@ -30377,7 +30377,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>29</v>
@@ -30451,10 +30451,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>85</v>
@@ -30525,7 +30525,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>29</v>
@@ -30599,10 +30599,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>90</v>
@@ -30673,7 +30673,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>29</v>
@@ -30747,7 +30747,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>29</v>
@@ -30821,7 +30821,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>29</v>
@@ -30895,7 +30895,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>29</v>
@@ -30969,7 +30969,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>29</v>
@@ -31043,7 +31043,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>119</v>
@@ -31117,7 +31117,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>100</v>
@@ -31191,7 +31191,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>29</v>
@@ -31265,7 +31265,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>29</v>
@@ -31337,7 +31337,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>267</v>
@@ -31411,7 +31411,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>29</v>
@@ -31485,10 +31485,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>115</v>
@@ -31559,7 +31559,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>29</v>
@@ -31631,7 +31631,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>29</v>
@@ -31705,7 +31705,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>173</v>
@@ -31777,7 +31777,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>70</v>
@@ -31851,7 +31851,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>56</v>
@@ -31925,7 +31925,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>29</v>
@@ -31997,7 +31997,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>29</v>
@@ -32071,7 +32071,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>274</v>
@@ -32145,7 +32145,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>29</v>
@@ -32219,7 +32219,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>47</v>
@@ -32293,7 +32293,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>47</v>
@@ -32367,7 +32367,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>29</v>
@@ -32515,7 +32515,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>29</v>
@@ -32589,7 +32589,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>231</v>
@@ -32663,7 +32663,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>29</v>
@@ -32737,10 +32737,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>85</v>
@@ -32811,7 +32811,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>29</v>
@@ -32885,7 +32885,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>47</v>
@@ -32959,7 +32959,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>29</v>
@@ -33033,7 +33033,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>29</v>
@@ -33105,7 +33105,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>47</v>
@@ -33179,7 +33179,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>47</v>
@@ -33253,7 +33253,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>29</v>
@@ -33327,7 +33327,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>100</v>
@@ -33401,7 +33401,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>47</v>
@@ -33475,7 +33475,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>29</v>
@@ -33549,7 +33549,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>229</v>
@@ -33623,7 +33623,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>267</v>
@@ -33697,7 +33697,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>29</v>
@@ -33771,7 +33771,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>29</v>
@@ -33843,7 +33843,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>394</v>
@@ -33915,10 +33915,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>32</v>
@@ -33987,7 +33987,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>229</v>
@@ -34059,10 +34059,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>32</v>
@@ -34205,7 +34205,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>70</v>
@@ -34279,7 +34279,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>29</v>
@@ -34353,7 +34353,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>29</v>
@@ -34427,7 +34427,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>100</v>
@@ -34501,7 +34501,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>176</v>
@@ -34575,7 +34575,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>44</v>
@@ -34649,7 +34649,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>84</v>
@@ -34723,7 +34723,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>29</v>
@@ -34797,7 +34797,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>56</v>
@@ -34871,7 +34871,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>29</v>
@@ -34943,7 +34943,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>29</v>
@@ -35017,7 +35017,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>29</v>
@@ -35091,7 +35091,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>353</v>
@@ -35165,7 +35165,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>100</v>
@@ -35239,7 +35239,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>29</v>
@@ -35313,7 +35313,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>29</v>
@@ -35387,7 +35387,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>29</v>
@@ -35461,7 +35461,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>29</v>
@@ -35535,7 +35535,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>29</v>
@@ -35607,7 +35607,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>335</v>
@@ -35681,7 +35681,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>47</v>
@@ -35755,7 +35755,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>404</v>
@@ -35827,10 +35827,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>85</v>
@@ -35901,7 +35901,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>29</v>
@@ -35975,7 +35975,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>100</v>
@@ -36049,7 +36049,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>231</v>
@@ -36123,7 +36123,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>29</v>
@@ -36197,7 +36197,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>29</v>
@@ -36271,7 +36271,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>29</v>
@@ -36345,7 +36345,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>88</v>
@@ -36419,7 +36419,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>335</v>
@@ -36493,7 +36493,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>282</v>
@@ -36567,7 +36567,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>60</v>
@@ -36641,7 +36641,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>29</v>
@@ -36715,7 +36715,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>29</v>
@@ -36789,7 +36789,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>29</v>
@@ -36863,7 +36863,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>29</v>
@@ -36935,7 +36935,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>278</v>
@@ -37009,7 +37009,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>29</v>
@@ -37083,7 +37083,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>126</v>
@@ -37155,7 +37155,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>29</v>
@@ -37229,7 +37229,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>88</v>
@@ -37303,7 +37303,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>29</v>
@@ -37375,10 +37375,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>26</v>
@@ -37449,7 +37449,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>60</v>
@@ -37521,7 +37521,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>29</v>
@@ -37595,7 +37595,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>29</v>
@@ -37669,7 +37669,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>29</v>
@@ -37743,7 +37743,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>78</v>
@@ -37817,7 +37817,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>56</v>
@@ -37889,7 +37889,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>160</v>
@@ -37963,7 +37963,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>412</v>
@@ -38111,10 +38111,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>50</v>
@@ -38185,7 +38185,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>78</v>
@@ -38257,7 +38257,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>29</v>
@@ -38331,7 +38331,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>29</v>
@@ -38405,7 +38405,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>29</v>
@@ -38479,7 +38479,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>29</v>
@@ -38551,7 +38551,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>181</v>
@@ -38625,7 +38625,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>100</v>
@@ -38699,7 +38699,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>353</v>
@@ -38773,7 +38773,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>29</v>
@@ -38847,7 +38847,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>394</v>
@@ -38995,7 +38995,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>88</v>
@@ -39069,7 +39069,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>74</v>
@@ -39143,7 +39143,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>29</v>
@@ -39217,7 +39217,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>160</v>
@@ -39279,7 +39279,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>29</v>
@@ -39353,7 +39353,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>29</v>
@@ -39427,7 +39427,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>29</v>
@@ -39501,7 +39501,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>29</v>
@@ -39575,7 +39575,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>222</v>
